--- a/biology/Botanique/Aloe_ahmarensis/Aloe_ahmarensis.xlsx
+++ b/biology/Botanique/Aloe_ahmarensis/Aloe_ahmarensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aloe ahmarensis est une espèce de plantes à fleurs du genre des aloès, de la famille des Xanthorrhoeaceae et de la sous-famille de Asphodeloideae. L'épithète spécifique ahmarensis se réfère à la présence de l'espèce à Al Ahmar au Yémen. Elle a été décrite la première fois par P. Favell, M. Barry Miller &amp; Abdul Nasser Al-Gifri en 1999 dans Cactus and Succulent Journal[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aloe ahmarensis est une espèce de plantes à fleurs du genre des aloès, de la famille des Xanthorrhoeaceae et de la sous-famille de Asphodeloideae. L'épithète spécifique ahmarensis se réfère à la présence de l'espèce à Al Ahmar au Yémen. Elle a été décrite la première fois par P. Favell, M. Barry Miller &amp; Abdul Nasser Al-Gifri en 1999 dans Cactus and Succulent Journal.
 </t>
         </is>
       </c>
@@ -508,41 +520,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Caractéristiques végétatives
-Appareil reproducteur</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Aloe_ahmarensis</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Aloe_ahmarensis</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
           <t>Systématique et distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
